--- a/CalculatorSalariu.xlsx
+++ b/CalculatorSalariu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E256E636-DEC2-492C-A12D-327618E298C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD2425-9327-48FD-9B69-247C5F1B96DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F2E09EAF-3646-4EC7-B979-39329F88C5E7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Ore Lucrate</t>
   </si>
@@ -82,13 +82,46 @@
     <t>Norma in zile pt. ultimele 3 luni</t>
   </si>
   <si>
-    <t>PrimaNeta Parte?</t>
-  </si>
-  <si>
-    <t>Prima Flux Continuu Brut?</t>
-  </si>
-  <si>
     <t>Total beneficii taxabile</t>
+  </si>
+  <si>
+    <t>Prima Flux Continuu Brut</t>
+  </si>
+  <si>
+    <t>PrimaNeta Parte</t>
+  </si>
+  <si>
+    <t>Salar orar x Ore lucrate</t>
+  </si>
+  <si>
+    <t>Salar orar x 0.25 x Ore Noapte</t>
+  </si>
+  <si>
+    <t>Salar orar x 0.15 x Ore Week-end</t>
+  </si>
+  <si>
+    <t>Incadrare x Norma</t>
+  </si>
+  <si>
+    <t>Salar orar x Ore suplim. 100%</t>
+  </si>
+  <si>
+    <t>Salar orar x 2 x Ore suplim. 200%</t>
+  </si>
+  <si>
+    <t>Incadrare x 3 /  Norma in zile pt. ultimele 3 luni x Concediu odihna</t>
+  </si>
+  <si>
+    <t>Suma bruta totala x 0.25</t>
+  </si>
+  <si>
+    <t>Suma bruta totala x 0.1</t>
+  </si>
+  <si>
+    <t>( Suma bruta totala + Bonuri de masa - Asig. Pensie angajat - Asig. Sanatate angajat ) x 0.1</t>
+  </si>
+  <si>
+    <t>( Suma bruta totala + Bonuri de masa - Asig. Pensie angajat - Asig. Sanatate angajat ) - Impozit total EE - Bonuri de masa</t>
   </si>
 </sst>
 </file>
@@ -440,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9EE494-8619-4895-96CB-E84F41485A66}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,17 +484,17 @@
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -469,8 +502,11 @@
         <f>B3*C6</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -478,8 +514,11 @@
         <f>C6*0.25*B4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -487,8 +526,11 @@
         <f>C6*0.15*B5</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -496,8 +538,11 @@
         <f>B1/B2</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -505,8 +550,11 @@
         <f>B7*C6</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -514,8 +562,11 @@
         <f>C6*2*B8</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -523,28 +574,31 @@
         <f>B1*3/B10*B9</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -553,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -562,7 +616,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -570,8 +624,11 @@
         <f>C15*0.25</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -579,8 +636,11 @@
         <f>C15*0.1</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -588,14 +648,20 @@
         <f>(C15+C14-C17-C18)*0.1</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="e">
         <f>(C15+C14-C17-C18) -C19-C14</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/CalculatorSalariu.xlsx
+++ b/CalculatorSalariu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD2425-9327-48FD-9B69-247C5F1B96DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06205193-DC59-430F-A646-2EBD4CEF03DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F2E09EAF-3646-4EC7-B979-39329F88C5E7}"/>
   </bookViews>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9EE494-8619-4895-96CB-E84F41485A66}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,9 +570,9 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="e">
+      <c r="C9">
         <f>B1*3/B10*B9</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -581,6 +581,9 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
+      </c>
+      <c r="B10">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/CalculatorSalariu.xlsx
+++ b/CalculatorSalariu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06205193-DC59-430F-A646-2EBD4CEF03DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6873CE3-1E1B-4724-ADF7-A0DDD05F2590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F2E09EAF-3646-4EC7-B979-39329F88C5E7}"/>
   </bookViews>
@@ -137,12 +137,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,8 +163,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +483,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,6 +505,7 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="e">
         <f>B3*C6</f>
         <v>#DIV/0!</v>
@@ -510,6 +518,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="1"/>
       <c r="C4" t="e">
         <f>C6*0.25*B4</f>
         <v>#DIV/0!</v>
@@ -522,6 +531,7 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="1"/>
       <c r="C5" t="e">
         <f>C6*0.15*B5</f>
         <v>#DIV/0!</v>
@@ -534,6 +544,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="1"/>
       <c r="C6" t="e">
         <f>B1/B2</f>
         <v>#DIV/0!</v>
@@ -546,6 +557,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="1"/>
       <c r="C7" t="e">
         <f>B7*C6</f>
         <v>#DIV/0!</v>
@@ -558,6 +570,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="C8" t="e">
         <f>C6*2*B8</f>
         <v>#DIV/0!</v>
@@ -570,6 +583,7 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
+      <c r="B9" s="1"/>
       <c r="C9">
         <f>B1*3/B10*B9</f>
         <v>0</v>
@@ -582,7 +596,7 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>62</v>
       </c>
     </row>
@@ -590,21 +604,25 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
+      <c r="B14" s="1"/>
       <c r="C14">
         <f>B14*20</f>
         <v>0</v>
@@ -614,15 +632,20 @@
       <c r="A15" t="s">
         <v>3</v>
       </c>
+      <c r="B15" s="1"/>
       <c r="C15" t="e">
         <f>C3+C4+C5+C7+C8+C9+B11+B12</f>
         <v>#DIV/0!</v>
       </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
+      <c r="B17" s="1"/>
       <c r="C17" t="e">
         <f>C15*0.25</f>
         <v>#DIV/0!</v>
@@ -635,6 +658,7 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
+      <c r="B18" s="1"/>
       <c r="C18" t="e">
         <f>C15*0.1</f>
         <v>#DIV/0!</v>
@@ -647,6 +671,7 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
+      <c r="B19" s="1"/>
       <c r="C19" t="e">
         <f>(C15+C14-C17-C18)*0.1</f>
         <v>#DIV/0!</v>
@@ -659,6 +684,7 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
+      <c r="B20" s="1"/>
       <c r="C20" t="e">
         <f>(C15+C14-C17-C18) -C19-C14</f>
         <v>#DIV/0!</v>

--- a/CalculatorSalariu.xlsx
+++ b/CalculatorSalariu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6873CE3-1E1B-4724-ADF7-A0DDD05F2590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE4BF32-BABA-4821-899C-574171EB38E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F2E09EAF-3646-4EC7-B979-39329F88C5E7}"/>
   </bookViews>
@@ -137,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,7 +146,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,9 +169,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9EE494-8619-4895-96CB-E84F41485A66}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,17 +502,19 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
       <c r="C3" t="e">
         <f>B3*C6</f>
         <v>#DIV/0!</v>
@@ -518,7 +527,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="C4" t="e">
         <f>C6*0.25*B4</f>
         <v>#DIV/0!</v>
@@ -531,7 +540,7 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="C5" t="e">
         <f>C6*0.15*B5</f>
         <v>#DIV/0!</v>
@@ -557,7 +566,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2"/>
       <c r="C7" t="e">
         <f>B7*C6</f>
         <v>#DIV/0!</v>
@@ -570,7 +579,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
       <c r="C8" t="e">
         <f>C6*2*B8</f>
         <v>#DIV/0!</v>
@@ -583,7 +592,7 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9">
         <f>B1*3/B10*B9</f>
         <v>0</v>
@@ -596,7 +605,7 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>62</v>
       </c>
     </row>
@@ -604,25 +613,25 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14">
         <f>B14*20</f>
         <v>0</v>
